--- a/ref/사용처지역코드.xlsx
+++ b/ref/사용처지역코드.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lim/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\promptech\git-projects\localpay.github.io\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA686E0-14D4-3B43-BB2D-A88DF79B7265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300FD67D-4306-4B77-BD2F-1A5F45E8B741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Result 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Query" sheetId="2" r:id="rId2"/>
+    <sheet name="사용처지역코드" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="501">
   <si>
     <t>시도</t>
   </si>
@@ -1516,10 +1515,92 @@
     <t>50130</t>
   </si>
   <si>
-    <t>SELECT t.* FROM portal.SIGUNGU_CODE t</t>
-  </si>
-  <si>
     <t>지역코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>강원특별자치도로 시도 명칭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>변경</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전북특별자치도로 시도 명칭 변경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>변경된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>지역코드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(2024.01.25)</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1527,7 +1608,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1554,6 +1635,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1563,7 +1680,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1694,15 +1811,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1726,9 +1883,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1738,7 +1892,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1956,4547 +2125,4168 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1000"/>
+  <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="19.5" style="13" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="23" width="8.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="23" width="8.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:5" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="18" customHeight="1">
+      <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="18" customHeight="1">
+      <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="18" customHeight="1">
+      <c r="A4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="18" customHeight="1">
+      <c r="A5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="18" customHeight="1">
+      <c r="A6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="18" customHeight="1">
+      <c r="A7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" ht="18" customHeight="1">
+      <c r="A8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" ht="18" customHeight="1">
+      <c r="A9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" ht="18" customHeight="1">
+      <c r="A10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" ht="18" customHeight="1">
+      <c r="A11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" ht="18" customHeight="1">
+      <c r="A12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" ht="18" customHeight="1">
+      <c r="A13" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" ht="18" customHeight="1">
+      <c r="A14" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" ht="18" customHeight="1">
+      <c r="A15" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" ht="18" customHeight="1">
+      <c r="A16" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" ht="18" customHeight="1">
+      <c r="A17" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" ht="18" customHeight="1">
+      <c r="A18" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" ht="18" customHeight="1">
+      <c r="A19" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" ht="18" customHeight="1">
+      <c r="A20" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" ht="18" customHeight="1">
+      <c r="A21" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" ht="18" customHeight="1">
+      <c r="A22" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" ht="18" customHeight="1">
+      <c r="A23" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" ht="18" customHeight="1">
+      <c r="A24" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="12" t="s">
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" ht="18" customHeight="1">
+      <c r="A25" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="12" t="s">
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" ht="18" customHeight="1">
+      <c r="A26" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="12" t="s">
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" ht="18" customHeight="1">
+      <c r="A27" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="12" t="s">
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" ht="18" customHeight="1">
+      <c r="A28" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="12" t="s">
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" ht="18" customHeight="1">
+      <c r="A29" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="12" t="s">
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" ht="18" customHeight="1">
+      <c r="A30" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="12" t="s">
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" ht="18" customHeight="1">
+      <c r="A31" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="12" t="s">
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:5" ht="18" customHeight="1">
+      <c r="A32" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="12" t="s">
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" ht="18" customHeight="1">
+      <c r="A33" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="12" t="s">
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" ht="18" customHeight="1">
+      <c r="A34" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="12" t="s">
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="1:5" ht="18" customHeight="1">
+      <c r="A35" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="12" t="s">
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:5" ht="18" customHeight="1">
+      <c r="A36" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="12" t="s">
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="1:5" ht="18" customHeight="1">
+      <c r="A37" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="12" t="s">
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="1:5" ht="18" customHeight="1">
+      <c r="A38" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="12" t="s">
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="1:5" ht="18" customHeight="1">
+      <c r="A39" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="12" t="s">
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="1:5" ht="18" customHeight="1">
+      <c r="A40" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="12" t="s">
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="1:5" ht="18" customHeight="1">
+      <c r="A41" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="12" t="s">
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" spans="1:5" ht="18" customHeight="1">
+      <c r="A42" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="12" t="s">
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+    </row>
+    <row r="43" spans="1:5" ht="18" customHeight="1">
+      <c r="A43" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="12" t="s">
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+    </row>
+    <row r="44" spans="1:5" ht="18" customHeight="1">
+      <c r="A44" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="12" t="s">
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+    </row>
+    <row r="45" spans="1:5" ht="18" customHeight="1">
+      <c r="A45" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="12" t="s">
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+    </row>
+    <row r="46" spans="1:5" ht="18" customHeight="1">
+      <c r="A46" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="12" t="s">
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+    </row>
+    <row r="47" spans="1:5" ht="18" customHeight="1">
+      <c r="A47" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="12" t="s">
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+    </row>
+    <row r="48" spans="1:5" ht="18" customHeight="1">
+      <c r="A48" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="12" t="s">
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+    </row>
+    <row r="49" spans="1:5" ht="18" customHeight="1">
+      <c r="A49" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="12" t="s">
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+    </row>
+    <row r="50" spans="1:5" ht="18" customHeight="1">
+      <c r="A50" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="12" t="s">
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+    </row>
+    <row r="51" spans="1:5" ht="18" customHeight="1">
+      <c r="A51" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="12" t="s">
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+    </row>
+    <row r="52" spans="1:5" ht="18" customHeight="1">
+      <c r="A52" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="12" t="s">
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+    </row>
+    <row r="53" spans="1:5" ht="18" customHeight="1">
+      <c r="A53" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="12" t="s">
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+    </row>
+    <row r="54" spans="1:5" ht="18" customHeight="1">
+      <c r="A54" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="12" t="s">
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+    </row>
+    <row r="55" spans="1:5" ht="18" customHeight="1">
+      <c r="A55" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="12" t="s">
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+    </row>
+    <row r="56" spans="1:5" ht="18" customHeight="1">
+      <c r="A56" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="12" t="s">
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+    </row>
+    <row r="57" spans="1:5" ht="18" customHeight="1">
+      <c r="A57" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="12" t="s">
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+    </row>
+    <row r="58" spans="1:5" ht="18" customHeight="1">
+      <c r="A58" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="12" t="s">
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+    </row>
+    <row r="59" spans="1:5" ht="18" customHeight="1">
+      <c r="A59" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="12" t="s">
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+    </row>
+    <row r="60" spans="1:5" ht="18" customHeight="1">
+      <c r="A60" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="12" t="s">
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+    </row>
+    <row r="61" spans="1:5" ht="18" customHeight="1">
+      <c r="A61" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="12" t="s">
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+    </row>
+    <row r="62" spans="1:5" ht="18" customHeight="1">
+      <c r="A62" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="12" t="s">
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+    </row>
+    <row r="63" spans="1:5" ht="18" customHeight="1">
+      <c r="A63" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="12" t="s">
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+    </row>
+    <row r="64" spans="1:5" ht="18" customHeight="1">
+      <c r="A64" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="12" t="s">
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+    </row>
+    <row r="65" spans="1:5" ht="18" customHeight="1">
+      <c r="A65" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="12" t="s">
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+    </row>
+    <row r="66" spans="1:5" ht="18" customHeight="1">
+      <c r="A66" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="12" t="s">
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+    </row>
+    <row r="67" spans="1:5" ht="18" customHeight="1">
+      <c r="A67" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="12" t="s">
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+    </row>
+    <row r="68" spans="1:5" ht="18" customHeight="1">
+      <c r="A68" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="12" t="s">
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+    </row>
+    <row r="69" spans="1:5" ht="18" customHeight="1">
+      <c r="A69" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="12" t="s">
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+    </row>
+    <row r="70" spans="1:5" ht="18" customHeight="1">
+      <c r="A70" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="12" t="s">
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+    </row>
+    <row r="71" spans="1:5" ht="18" customHeight="1">
+      <c r="A71" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="12" t="s">
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+    </row>
+    <row r="72" spans="1:5" ht="18" customHeight="1">
+      <c r="A72" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="12" t="s">
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+    </row>
+    <row r="73" spans="1:5" ht="18" customHeight="1">
+      <c r="A73" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="12" t="s">
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+    </row>
+    <row r="74" spans="1:5" ht="18" customHeight="1">
+      <c r="A74" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="12" t="s">
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+    </row>
+    <row r="75" spans="1:5" ht="18" customHeight="1">
+      <c r="A75" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="12" t="s">
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+    </row>
+    <row r="76" spans="1:5" ht="18" customHeight="1">
+      <c r="A76" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="12" t="s">
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+    </row>
+    <row r="77" spans="1:5" ht="18" customHeight="1">
+      <c r="A77" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="12" t="s">
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+    </row>
+    <row r="78" spans="1:5" ht="18" customHeight="1">
+      <c r="A78" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="12" t="s">
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+    </row>
+    <row r="79" spans="1:5" ht="18" customHeight="1">
+      <c r="A79" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="2" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="12" t="s">
+      <c r="D79" s="13">
+        <v>51110</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="18" customHeight="1">
+      <c r="A80" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="2" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="12" t="s">
+      <c r="D80" s="13">
+        <v>51130</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="18" customHeight="1">
+      <c r="A81" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="12" t="s">
+      <c r="D81" s="13">
+        <v>51150</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="18" customHeight="1">
+      <c r="A82" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="B82" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="2" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="12" t="s">
+      <c r="D82" s="13">
+        <v>51170</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="18" customHeight="1">
+      <c r="A83" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B83" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="2" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="12" t="s">
+      <c r="D83" s="13">
+        <v>51190</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="18" customHeight="1">
+      <c r="A84" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B84" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="2" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="12" t="s">
+      <c r="D84" s="13">
+        <v>51210</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="18" customHeight="1">
+      <c r="A85" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="B85" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="12" t="s">
+      <c r="D85" s="13">
+        <v>51230</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="18" customHeight="1">
+      <c r="A86" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="B86" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="2" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="12" t="s">
+      <c r="D86" s="13">
+        <v>51720</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="18" customHeight="1">
+      <c r="A87" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="B87" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="12" t="s">
+      <c r="D87" s="13">
+        <v>51730</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="18" customHeight="1">
+      <c r="A88" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="B88" s="8" t="s">
+      <c r="B88" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="12" t="s">
+      <c r="D88" s="13">
+        <v>51750</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="18" customHeight="1">
+      <c r="A89" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="B89" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="2" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="12" t="s">
+      <c r="D89" s="13">
+        <v>51760</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="18" customHeight="1">
+      <c r="A90" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="B90" s="8" t="s">
+      <c r="B90" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="2" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="12" t="s">
+      <c r="D90" s="13">
+        <v>51770</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="18" customHeight="1">
+      <c r="A91" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B91" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C91" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="12" t="s">
+      <c r="D91" s="13">
+        <v>51780</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="18" customHeight="1">
+      <c r="A92" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="B92" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" s="2" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="12" t="s">
+      <c r="D92" s="13">
+        <v>51790</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="18" customHeight="1">
+      <c r="A93" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="B93" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C93" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="12" t="s">
+      <c r="D93" s="13">
+        <v>51800</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="18" customHeight="1">
+      <c r="A94" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="B94" s="8" t="s">
+      <c r="B94" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="2" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="12" t="s">
+      <c r="D94" s="13">
+        <v>51810</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="18" customHeight="1">
+      <c r="A95" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="B95" s="8" t="s">
+      <c r="B95" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C95" s="2" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="12" t="s">
+      <c r="D95" s="13">
+        <v>51820</v>
+      </c>
+      <c r="E95" s="11" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="18" customHeight="1">
+      <c r="A96" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="B96" s="8" t="s">
+      <c r="B96" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C96" s="2" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="12" t="s">
+      <c r="D96" s="13">
+        <v>51830</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="18" customHeight="1">
+      <c r="A97" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="B97" s="8" t="s">
+      <c r="B97" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C97" s="2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="12" t="s">
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+    </row>
+    <row r="98" spans="1:5" ht="18" customHeight="1">
+      <c r="A98" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="B98" s="8" t="s">
+      <c r="B98" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C98" s="2" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="12" t="s">
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+    </row>
+    <row r="99" spans="1:5" ht="18" customHeight="1">
+      <c r="A99" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="B99" s="8" t="s">
+      <c r="B99" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C99" s="2" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="12" t="s">
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+    </row>
+    <row r="100" spans="1:5" ht="18" customHeight="1">
+      <c r="A100" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="B100" s="8" t="s">
+      <c r="B100" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C100" s="2" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="12" t="s">
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+    </row>
+    <row r="101" spans="1:5" ht="18" customHeight="1">
+      <c r="A101" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="B101" s="8" t="s">
+      <c r="B101" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C101" s="2" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="12" t="s">
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+    </row>
+    <row r="102" spans="1:5" ht="18" customHeight="1">
+      <c r="A102" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="B102" s="8" t="s">
+      <c r="B102" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C102" s="2" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="12" t="s">
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+    </row>
+    <row r="103" spans="1:5" ht="18" customHeight="1">
+      <c r="A103" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B103" s="8" t="s">
+      <c r="B103" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C103" s="2" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="12" t="s">
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+    </row>
+    <row r="104" spans="1:5" ht="18" customHeight="1">
+      <c r="A104" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="B104" s="8" t="s">
+      <c r="B104" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C104" s="2" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="12" t="s">
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+    </row>
+    <row r="105" spans="1:5" ht="18" customHeight="1">
+      <c r="A105" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="B105" s="8" t="s">
+      <c r="B105" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C105" s="2" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="12" t="s">
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+    </row>
+    <row r="106" spans="1:5" ht="18" customHeight="1">
+      <c r="A106" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="B106" s="8" t="s">
+      <c r="B106" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C106" s="2" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="12" t="s">
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+    </row>
+    <row r="107" spans="1:5" ht="18" customHeight="1">
+      <c r="A107" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="B107" s="8" t="s">
+      <c r="B107" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C107" s="2" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="12" t="s">
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+    </row>
+    <row r="108" spans="1:5" ht="18" customHeight="1">
+      <c r="A108" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="B108" s="8" t="s">
+      <c r="B108" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C108" s="2" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="12" t="s">
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+    </row>
+    <row r="109" spans="1:5" ht="18" customHeight="1">
+      <c r="A109" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="B109" s="8" t="s">
+      <c r="B109" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C109" s="2" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="12" t="s">
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+    </row>
+    <row r="110" spans="1:5" ht="18" customHeight="1">
+      <c r="A110" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="B110" s="8" t="s">
+      <c r="B110" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C110" s="2" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="12" t="s">
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+    </row>
+    <row r="111" spans="1:5" ht="18" customHeight="1">
+      <c r="A111" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="B111" s="8" t="s">
+      <c r="B111" s="7" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="12" t="s">
+      <c r="C111" s="3"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+    </row>
+    <row r="112" spans="1:5" ht="18" customHeight="1">
+      <c r="A112" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="B112" s="8" t="s">
+      <c r="B112" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C112" s="2" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="12" t="s">
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+    </row>
+    <row r="113" spans="1:5" ht="18" customHeight="1">
+      <c r="A113" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="B113" s="8" t="s">
+      <c r="B113" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C113" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="12" t="s">
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+    </row>
+    <row r="114" spans="1:5" ht="18" customHeight="1">
+      <c r="A114" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B114" s="8" t="s">
+      <c r="B114" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="C114" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="12" t="s">
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+    </row>
+    <row r="115" spans="1:5" ht="18" customHeight="1">
+      <c r="A115" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B115" s="8" t="s">
+      <c r="B115" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C115" s="2" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="12" t="s">
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
+    </row>
+    <row r="116" spans="1:5" ht="18" customHeight="1">
+      <c r="A116" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="B116" s="8" t="s">
+      <c r="B116" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C116" s="2" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="12" t="s">
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+    </row>
+    <row r="117" spans="1:5" ht="18" customHeight="1">
+      <c r="A117" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="B117" s="8" t="s">
+      <c r="B117" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="C117" s="2" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="12" t="s">
+      <c r="D117" s="4"/>
+      <c r="E117" s="4"/>
+    </row>
+    <row r="118" spans="1:5" ht="18" customHeight="1">
+      <c r="A118" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="B118" s="8" t="s">
+      <c r="B118" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C118" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="12" t="s">
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+    </row>
+    <row r="119" spans="1:5" ht="18" customHeight="1">
+      <c r="A119" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="B119" s="8" t="s">
+      <c r="B119" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="C119" s="2" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="12" t="s">
+      <c r="D119" s="4"/>
+      <c r="E119" s="4"/>
+    </row>
+    <row r="120" spans="1:5" ht="18" customHeight="1">
+      <c r="A120" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="B120" s="8" t="s">
+      <c r="B120" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C120" s="2" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="12" t="s">
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
+    </row>
+    <row r="121" spans="1:5" ht="18" customHeight="1">
+      <c r="A121" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="B121" s="8" t="s">
+      <c r="B121" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C121" s="2" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="12" t="s">
+      <c r="D121" s="4"/>
+      <c r="E121" s="4"/>
+    </row>
+    <row r="122" spans="1:5" ht="18" customHeight="1">
+      <c r="A122" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="B122" s="8" t="s">
+      <c r="B122" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C122" s="2" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="12" t="s">
+      <c r="D122" s="4"/>
+      <c r="E122" s="4"/>
+    </row>
+    <row r="123" spans="1:5" ht="18" customHeight="1">
+      <c r="A123" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="B123" s="8" t="s">
+      <c r="B123" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C123" s="2" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="12" t="s">
+      <c r="D123" s="4"/>
+      <c r="E123" s="4"/>
+    </row>
+    <row r="124" spans="1:5" ht="18" customHeight="1">
+      <c r="A124" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="B124" s="8" t="s">
+      <c r="B124" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="C124" s="2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="12" t="s">
+      <c r="D124" s="4"/>
+      <c r="E124" s="4"/>
+    </row>
+    <row r="125" spans="1:5" ht="18" customHeight="1">
+      <c r="A125" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="B125" s="8" t="s">
+      <c r="B125" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C125" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="12" t="s">
+      <c r="D125" s="4"/>
+      <c r="E125" s="4"/>
+    </row>
+    <row r="126" spans="1:5" ht="18" customHeight="1">
+      <c r="A126" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="B126" s="8" t="s">
+      <c r="B126" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C126" s="2" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="12" t="s">
+      <c r="D126" s="4"/>
+      <c r="E126" s="4"/>
+    </row>
+    <row r="127" spans="1:5" ht="18" customHeight="1">
+      <c r="A127" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="B127" s="8" t="s">
+      <c r="B127" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="C127" s="2" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="12" t="s">
+      <c r="D127" s="4"/>
+      <c r="E127" s="4"/>
+    </row>
+    <row r="128" spans="1:5" ht="18" customHeight="1">
+      <c r="A128" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="B128" s="8" t="s">
+      <c r="B128" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="C128" s="2" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="12" t="s">
+      <c r="D128" s="4"/>
+      <c r="E128" s="4"/>
+    </row>
+    <row r="129" spans="1:5" ht="18" customHeight="1">
+      <c r="A129" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="B129" s="8" t="s">
+      <c r="B129" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="C129" s="2" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="12" t="s">
+      <c r="D129" s="4"/>
+      <c r="E129" s="4"/>
+    </row>
+    <row r="130" spans="1:5" ht="18" customHeight="1">
+      <c r="A130" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="B130" s="8" t="s">
+      <c r="B130" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="C130" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="12" t="s">
+      <c r="D130" s="4"/>
+      <c r="E130" s="4"/>
+    </row>
+    <row r="131" spans="1:5" ht="18" customHeight="1">
+      <c r="A131" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="B131" s="8" t="s">
+      <c r="B131" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="C131" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="12" t="s">
+      <c r="D131" s="4"/>
+      <c r="E131" s="4"/>
+    </row>
+    <row r="132" spans="1:5" ht="18" customHeight="1">
+      <c r="A132" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="B132" s="8" t="s">
+      <c r="B132" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="C132" s="2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="12" t="s">
+      <c r="D132" s="4"/>
+      <c r="E132" s="4"/>
+    </row>
+    <row r="133" spans="1:5" ht="18" customHeight="1">
+      <c r="A133" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="B133" s="8" t="s">
+      <c r="B133" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="C133" s="2" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="12" t="s">
+      <c r="D133" s="4"/>
+      <c r="E133" s="4"/>
+    </row>
+    <row r="134" spans="1:5" ht="18" customHeight="1">
+      <c r="A134" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="B134" s="8" t="s">
+      <c r="B134" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="C134" s="3" t="s">
+      <c r="C134" s="2" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="12" t="s">
+      <c r="D134" s="4"/>
+      <c r="E134" s="4"/>
+    </row>
+    <row r="135" spans="1:5" ht="18" customHeight="1">
+      <c r="A135" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="B135" s="8" t="s">
+      <c r="B135" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="C135" s="3" t="s">
+      <c r="C135" s="2" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="12" t="s">
+      <c r="D135" s="4"/>
+      <c r="E135" s="4"/>
+    </row>
+    <row r="136" spans="1:5" ht="18" customHeight="1">
+      <c r="A136" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="B136" s="8" t="s">
+      <c r="B136" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="C136" s="2" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="12" t="s">
+      <c r="D136" s="4"/>
+      <c r="E136" s="4"/>
+    </row>
+    <row r="137" spans="1:5" ht="18" customHeight="1">
+      <c r="A137" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="B137" s="8" t="s">
+      <c r="B137" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="C137" s="3" t="s">
+      <c r="C137" s="2" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="12" t="s">
+      <c r="D137" s="4"/>
+      <c r="E137" s="4"/>
+    </row>
+    <row r="138" spans="1:5" ht="18" customHeight="1">
+      <c r="A138" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="B138" s="8" t="s">
+      <c r="B138" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="C138" s="2" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="12" t="s">
+      <c r="D138" s="4"/>
+      <c r="E138" s="4"/>
+    </row>
+    <row r="139" spans="1:5" ht="18" customHeight="1">
+      <c r="A139" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="B139" s="8" t="s">
+      <c r="B139" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="C139" s="3" t="s">
+      <c r="C139" s="2" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="12" t="s">
+      <c r="D139" s="4"/>
+      <c r="E139" s="4"/>
+    </row>
+    <row r="140" spans="1:5" ht="18" customHeight="1">
+      <c r="A140" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="B140" s="8" t="s">
+      <c r="B140" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="C140" s="3" t="s">
+      <c r="C140" s="2" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="12" t="s">
+      <c r="D140" s="4"/>
+      <c r="E140" s="4"/>
+    </row>
+    <row r="141" spans="1:5" ht="18" customHeight="1">
+      <c r="A141" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="B141" s="8" t="s">
+      <c r="B141" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="C141" s="2" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="12" t="s">
+      <c r="D141" s="4"/>
+      <c r="E141" s="4"/>
+    </row>
+    <row r="142" spans="1:5" ht="18" customHeight="1">
+      <c r="A142" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B142" s="8" t="s">
+      <c r="B142" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="C142" s="3" t="s">
+      <c r="C142" s="2" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="12" t="s">
+      <c r="D142" s="4"/>
+      <c r="E142" s="4"/>
+    </row>
+    <row r="143" spans="1:5" ht="18" customHeight="1">
+      <c r="A143" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="B143" s="8" t="s">
+      <c r="B143" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="C143" s="3" t="s">
+      <c r="C143" s="2" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="12" t="s">
+      <c r="D143" s="4"/>
+      <c r="E143" s="4"/>
+    </row>
+    <row r="144" spans="1:5" ht="18" customHeight="1">
+      <c r="A144" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="B144" s="8" t="s">
+      <c r="B144" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="C144" s="2" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="12" t="s">
+      <c r="D144" s="4"/>
+      <c r="E144" s="4"/>
+    </row>
+    <row r="145" spans="1:5" ht="18" customHeight="1">
+      <c r="A145" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="B145" s="8" t="s">
+      <c r="B145" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="C145" s="3" t="s">
+      <c r="C145" s="2" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="12" t="s">
+      <c r="D145" s="4"/>
+      <c r="E145" s="4"/>
+    </row>
+    <row r="146" spans="1:5" ht="18" customHeight="1">
+      <c r="A146" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="B146" s="8" t="s">
+      <c r="B146" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="C146" s="3" t="s">
+      <c r="C146" s="2" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="12" t="s">
+      <c r="D146" s="4"/>
+      <c r="E146" s="4"/>
+    </row>
+    <row r="147" spans="1:5" ht="18" customHeight="1">
+      <c r="A147" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="B147" s="8" t="s">
+      <c r="B147" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="C147" s="2" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="12" t="s">
+      <c r="D147" s="4"/>
+      <c r="E147" s="4"/>
+    </row>
+    <row r="148" spans="1:5" ht="18" customHeight="1">
+      <c r="A148" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="B148" s="8" t="s">
+      <c r="B148" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="C148" s="2" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="12" t="s">
+      <c r="D148" s="4"/>
+      <c r="E148" s="4"/>
+    </row>
+    <row r="149" spans="1:5" ht="18" customHeight="1">
+      <c r="A149" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="B149" s="8" t="s">
+      <c r="B149" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="C149" s="3" t="s">
+      <c r="C149" s="2" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="12" t="s">
+      <c r="D149" s="4"/>
+      <c r="E149" s="4"/>
+    </row>
+    <row r="150" spans="1:5" ht="18" customHeight="1">
+      <c r="A150" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="B150" s="8" t="s">
+      <c r="B150" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="C150" s="3" t="s">
+      <c r="C150" s="2" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="12" t="s">
+      <c r="D150" s="4"/>
+      <c r="E150" s="4"/>
+    </row>
+    <row r="151" spans="1:5" ht="18" customHeight="1">
+      <c r="A151" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="B151" s="8" t="s">
+      <c r="B151" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="C151" s="3" t="s">
+      <c r="C151" s="2" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="12" t="s">
+      <c r="D151" s="4"/>
+      <c r="E151" s="4"/>
+    </row>
+    <row r="152" spans="1:5" ht="18" customHeight="1">
+      <c r="A152" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B152" s="8" t="s">
+      <c r="B152" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="C152" s="3" t="s">
+      <c r="C152" s="2" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="12" t="s">
+      <c r="D152" s="4"/>
+      <c r="E152" s="4"/>
+    </row>
+    <row r="153" spans="1:5" ht="18" customHeight="1">
+      <c r="A153" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="B153" s="8" t="s">
+      <c r="B153" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="C153" s="2" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="12" t="s">
+      <c r="D153" s="4"/>
+      <c r="E153" s="4"/>
+    </row>
+    <row r="154" spans="1:5" ht="18" customHeight="1">
+      <c r="A154" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="B154" s="8" t="s">
+      <c r="B154" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="C154" s="3" t="s">
+      <c r="C154" s="2" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="12" t="s">
+      <c r="D154" s="4"/>
+      <c r="E154" s="4"/>
+    </row>
+    <row r="155" spans="1:5" ht="18" customHeight="1">
+      <c r="A155" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="B155" s="8" t="s">
+      <c r="B155" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="C155" s="3" t="s">
+      <c r="C155" s="2" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="12" t="s">
+      <c r="D155" s="4"/>
+      <c r="E155" s="4"/>
+    </row>
+    <row r="156" spans="1:5" ht="18" customHeight="1">
+      <c r="A156" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="B156" s="8" t="s">
+      <c r="B156" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="C156" s="3" t="s">
+      <c r="C156" s="2" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="12" t="s">
+      <c r="D156" s="4"/>
+      <c r="E156" s="4"/>
+    </row>
+    <row r="157" spans="1:5" ht="18" customHeight="1">
+      <c r="A157" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="B157" s="8" t="s">
+      <c r="B157" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="C157" s="3" t="s">
+      <c r="C157" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="12" t="s">
+      <c r="D157" s="4"/>
+      <c r="E157" s="4"/>
+    </row>
+    <row r="158" spans="1:5" ht="18" customHeight="1">
+      <c r="A158" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="B158" s="8" t="s">
+      <c r="B158" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="C158" s="3" t="s">
+      <c r="C158" s="2" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="12" t="s">
+      <c r="D158" s="4"/>
+      <c r="E158" s="4"/>
+    </row>
+    <row r="159" spans="1:5" ht="18" customHeight="1">
+      <c r="A159" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="B159" s="8" t="s">
+      <c r="B159" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="C159" s="3" t="s">
+      <c r="C159" s="2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="12" t="s">
+      <c r="D159" s="4"/>
+      <c r="E159" s="4"/>
+    </row>
+    <row r="160" spans="1:5" ht="18" customHeight="1">
+      <c r="A160" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="B160" s="8" t="s">
+      <c r="B160" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="C160" s="3" t="s">
+      <c r="C160" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="12" t="s">
+      <c r="D160" s="4"/>
+      <c r="E160" s="4"/>
+    </row>
+    <row r="161" spans="1:5" ht="18" customHeight="1">
+      <c r="A161" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="B161" s="8" t="s">
+      <c r="B161" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="C161" s="3" t="s">
+      <c r="C161" s="2" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="12" t="s">
+      <c r="D161" s="4"/>
+      <c r="E161" s="4"/>
+    </row>
+    <row r="162" spans="1:5" ht="18" customHeight="1">
+      <c r="A162" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="B162" s="8" t="s">
+      <c r="B162" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="C162" s="3" t="s">
+      <c r="C162" s="2" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="12" t="s">
+      <c r="D162" s="4"/>
+      <c r="E162" s="4"/>
+    </row>
+    <row r="163" spans="1:5" ht="18" customHeight="1">
+      <c r="A163" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="B163" s="8" t="s">
+      <c r="B163" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="C163" s="3" t="s">
+      <c r="C163" s="2" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="12" t="s">
+      <c r="D163" s="4"/>
+      <c r="E163" s="4"/>
+    </row>
+    <row r="164" spans="1:5" ht="18" customHeight="1">
+      <c r="A164" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="B164" s="8" t="s">
+      <c r="B164" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="C164" s="3" t="s">
+      <c r="C164" s="2" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="12" t="s">
+      <c r="D164" s="4"/>
+      <c r="E164" s="4"/>
+    </row>
+    <row r="165" spans="1:5" ht="18" customHeight="1">
+      <c r="A165" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="B165" s="8" t="s">
+      <c r="B165" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="C165" s="3" t="s">
+      <c r="C165" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="12" t="s">
+      <c r="D165" s="4"/>
+      <c r="E165" s="4"/>
+    </row>
+    <row r="166" spans="1:5" ht="18" customHeight="1">
+      <c r="A166" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="B166" s="8" t="s">
+      <c r="B166" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="C166" s="3" t="s">
+      <c r="C166" s="2" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="12" t="s">
+      <c r="D166" s="4"/>
+      <c r="E166" s="4"/>
+    </row>
+    <row r="167" spans="1:5" ht="18" customHeight="1">
+      <c r="A167" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="B167" s="8" t="s">
+      <c r="B167" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="C167" s="3" t="s">
+      <c r="C167" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="12" t="s">
+      <c r="D167" s="4"/>
+      <c r="E167" s="4"/>
+    </row>
+    <row r="168" spans="1:5" ht="18" customHeight="1">
+      <c r="A168" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="B168" s="8" t="s">
+      <c r="B168" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="C168" s="3" t="s">
+      <c r="C168" s="2" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="12" t="s">
+      <c r="D168" s="4"/>
+      <c r="E168" s="4"/>
+    </row>
+    <row r="169" spans="1:5" ht="18" customHeight="1">
+      <c r="A169" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="B169" s="8" t="s">
+      <c r="B169" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="C169" s="3" t="s">
+      <c r="C169" s="2" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="12" t="s">
+      <c r="D169" s="4"/>
+      <c r="E169" s="4"/>
+    </row>
+    <row r="170" spans="1:5" ht="18" customHeight="1">
+      <c r="A170" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="B170" s="8" t="s">
+      <c r="B170" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="C170" s="3" t="s">
+      <c r="C170" s="2" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="12" t="s">
+      <c r="D170" s="4"/>
+      <c r="E170" s="4"/>
+    </row>
+    <row r="171" spans="1:5" ht="18" customHeight="1">
+      <c r="A171" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="B171" s="8" t="s">
+      <c r="B171" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="C171" s="3" t="s">
+      <c r="C171" s="2" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="12" t="s">
+      <c r="D171" s="4"/>
+      <c r="E171" s="4"/>
+    </row>
+    <row r="172" spans="1:5" ht="18" customHeight="1">
+      <c r="A172" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="B172" s="8" t="s">
+      <c r="B172" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="C172" s="3" t="s">
+      <c r="C172" s="2" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="12" t="s">
+      <c r="D172" s="4"/>
+      <c r="E172" s="4"/>
+    </row>
+    <row r="173" spans="1:5" ht="18" customHeight="1">
+      <c r="A173" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="B173" s="8" t="s">
+      <c r="B173" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="C173" s="3" t="s">
+      <c r="C173" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="12" t="s">
+      <c r="D173" s="4"/>
+      <c r="E173" s="4"/>
+    </row>
+    <row r="174" spans="1:5" ht="18" customHeight="1">
+      <c r="A174" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="B174" s="8" t="s">
+      <c r="B174" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="C174" s="3" t="s">
+      <c r="C174" s="2" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="12" t="s">
+      <c r="D174" s="4"/>
+      <c r="E174" s="4"/>
+    </row>
+    <row r="175" spans="1:5" ht="18" customHeight="1">
+      <c r="A175" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="B175" s="8" t="s">
+      <c r="B175" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="C175" s="3" t="s">
+      <c r="C175" s="2" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="12" t="s">
+      <c r="D175" s="4"/>
+      <c r="E175" s="4"/>
+    </row>
+    <row r="176" spans="1:5" ht="18" customHeight="1">
+      <c r="A176" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="B176" s="8" t="s">
+      <c r="B176" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="C176" s="3" t="s">
+      <c r="C176" s="2" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="12" t="s">
+      <c r="D176" s="4"/>
+      <c r="E176" s="4"/>
+    </row>
+    <row r="177" spans="1:5" ht="18" customHeight="1">
+      <c r="A177" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="B177" s="8" t="s">
+      <c r="B177" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="C177" s="3" t="s">
+      <c r="C177" s="2" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="12" t="s">
+      <c r="D177" s="4"/>
+      <c r="E177" s="4"/>
+    </row>
+    <row r="178" spans="1:5" ht="18" customHeight="1">
+      <c r="A178" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="B178" s="8" t="s">
+      <c r="B178" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="C178" s="3" t="s">
+      <c r="C178" s="2" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="12" t="s">
+      <c r="D178" s="4"/>
+      <c r="E178" s="4"/>
+    </row>
+    <row r="179" spans="1:5" ht="18" customHeight="1">
+      <c r="A179" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="B179" s="8" t="s">
+      <c r="B179" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="C179" s="3" t="s">
+      <c r="C179" s="2" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="12" t="s">
+      <c r="D179" s="4"/>
+      <c r="E179" s="4"/>
+    </row>
+    <row r="180" spans="1:5" ht="18" customHeight="1">
+      <c r="A180" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="B180" s="8" t="s">
+      <c r="B180" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="C180" s="3" t="s">
+      <c r="C180" s="2" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="12" t="s">
+      <c r="D180" s="4"/>
+      <c r="E180" s="4"/>
+    </row>
+    <row r="181" spans="1:5" ht="18" customHeight="1">
+      <c r="A181" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="B181" s="8" t="s">
+      <c r="B181" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="C181" s="3" t="s">
+      <c r="C181" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="12" t="s">
+      <c r="D181" s="4"/>
+      <c r="E181" s="4"/>
+    </row>
+    <row r="182" spans="1:5" ht="18" customHeight="1">
+      <c r="A182" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="B182" s="8" t="s">
+      <c r="B182" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="C182" s="3" t="s">
+      <c r="C182" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="12" t="s">
+      <c r="D182" s="4"/>
+      <c r="E182" s="4"/>
+    </row>
+    <row r="183" spans="1:5" ht="18" customHeight="1">
+      <c r="A183" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="B183" s="8" t="s">
+      <c r="B183" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="C183" s="3" t="s">
+      <c r="C183" s="2" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="12" t="s">
+      <c r="D183" s="4"/>
+      <c r="E183" s="4"/>
+    </row>
+    <row r="184" spans="1:5" ht="18" customHeight="1">
+      <c r="A184" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="B184" s="8" t="s">
+      <c r="B184" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="C184" s="3" t="s">
+      <c r="C184" s="2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="12" t="s">
+      <c r="D184" s="4"/>
+      <c r="E184" s="4"/>
+    </row>
+    <row r="185" spans="1:5" ht="18" customHeight="1">
+      <c r="A185" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="B185" s="8" t="s">
+      <c r="B185" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="C185" s="3" t="s">
+      <c r="C185" s="2" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="12" t="s">
+      <c r="D185" s="4"/>
+      <c r="E185" s="4"/>
+    </row>
+    <row r="186" spans="1:5" ht="18" customHeight="1">
+      <c r="A186" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="B186" s="8" t="s">
+      <c r="B186" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="C186" s="3" t="s">
+      <c r="C186" s="2" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="12" t="s">
+      <c r="D186" s="4"/>
+      <c r="E186" s="4"/>
+    </row>
+    <row r="187" spans="1:5" ht="18" customHeight="1">
+      <c r="A187" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="B187" s="8" t="s">
+      <c r="B187" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="C187" s="3" t="s">
+      <c r="C187" s="2" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="12" t="s">
+      <c r="D187" s="4"/>
+      <c r="E187" s="4"/>
+    </row>
+    <row r="188" spans="1:5" ht="18" customHeight="1">
+      <c r="A188" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="B188" s="8" t="s">
+      <c r="B188" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="C188" s="3" t="s">
+      <c r="C188" s="2" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="12" t="s">
+      <c r="D188" s="4"/>
+      <c r="E188" s="4"/>
+    </row>
+    <row r="189" spans="1:5" ht="18" customHeight="1">
+      <c r="A189" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="B189" s="8" t="s">
+      <c r="B189" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="C189" s="3" t="s">
+      <c r="C189" s="2" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="12" t="s">
+      <c r="D189" s="4"/>
+      <c r="E189" s="4"/>
+    </row>
+    <row r="190" spans="1:5" ht="18" customHeight="1">
+      <c r="A190" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="B190" s="8" t="s">
+      <c r="B190" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="C190" s="3" t="s">
+      <c r="C190" s="2" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="12" t="s">
+      <c r="D190" s="4"/>
+      <c r="E190" s="4"/>
+    </row>
+    <row r="191" spans="1:5" ht="18" customHeight="1">
+      <c r="A191" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="B191" s="8" t="s">
+      <c r="B191" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="C191" s="3" t="s">
+      <c r="C191" s="2" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="12" t="s">
+      <c r="D191" s="4"/>
+      <c r="E191" s="4"/>
+    </row>
+    <row r="192" spans="1:5" ht="18" customHeight="1">
+      <c r="A192" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="B192" s="8" t="s">
+      <c r="B192" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="C192" s="3" t="s">
+      <c r="C192" s="2" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="12" t="s">
+      <c r="D192" s="4"/>
+      <c r="E192" s="4"/>
+    </row>
+    <row r="193" spans="1:5" ht="18" customHeight="1">
+      <c r="A193" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="B193" s="8" t="s">
+      <c r="B193" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="C193" s="3" t="s">
+      <c r="C193" s="2" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="12" t="s">
+      <c r="D193" s="4"/>
+      <c r="E193" s="4"/>
+    </row>
+    <row r="194" spans="1:5" ht="18" customHeight="1">
+      <c r="A194" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="B194" s="8" t="s">
+      <c r="B194" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="C194" s="3" t="s">
+      <c r="C194" s="2" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="12" t="s">
+      <c r="D194" s="4"/>
+      <c r="E194" s="4"/>
+    </row>
+    <row r="195" spans="1:5" ht="18" customHeight="1">
+      <c r="A195" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="B195" s="8" t="s">
+      <c r="B195" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="C195" s="3" t="s">
+      <c r="C195" s="2" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="12" t="s">
+      <c r="D195" s="4"/>
+      <c r="E195" s="4"/>
+    </row>
+    <row r="196" spans="1:5" ht="18" customHeight="1">
+      <c r="A196" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="B196" s="8" t="s">
+      <c r="B196" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="C196" s="3" t="s">
+      <c r="C196" s="2" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="12" t="s">
+      <c r="D196" s="4"/>
+      <c r="E196" s="4"/>
+    </row>
+    <row r="197" spans="1:5" ht="18" customHeight="1">
+      <c r="A197" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="B197" s="8" t="s">
+      <c r="B197" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="C197" s="3" t="s">
+      <c r="C197" s="2" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="12" t="s">
+      <c r="D197" s="4"/>
+      <c r="E197" s="4"/>
+    </row>
+    <row r="198" spans="1:5" ht="18" customHeight="1">
+      <c r="A198" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="B198" s="8" t="s">
+      <c r="B198" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="C198" s="3" t="s">
+      <c r="C198" s="2" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="12" t="s">
+      <c r="D198" s="4"/>
+      <c r="E198" s="4"/>
+    </row>
+    <row r="199" spans="1:5" ht="18" customHeight="1">
+      <c r="A199" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B199" s="8" t="s">
+      <c r="B199" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="C199" s="3" t="s">
+      <c r="C199" s="2" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="12" t="s">
+      <c r="D199" s="4"/>
+      <c r="E199" s="4"/>
+    </row>
+    <row r="200" spans="1:5" ht="18" customHeight="1">
+      <c r="A200" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="B200" s="8" t="s">
+      <c r="B200" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="C200" s="3" t="s">
+      <c r="C200" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="12" t="s">
+      <c r="D200" s="4"/>
+      <c r="E200" s="4"/>
+    </row>
+    <row r="201" spans="1:5" ht="18" customHeight="1">
+      <c r="A201" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="B201" s="8" t="s">
+      <c r="B201" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="C201" s="3" t="s">
+      <c r="C201" s="2" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="12" t="s">
+      <c r="D201" s="4"/>
+      <c r="E201" s="4"/>
+    </row>
+    <row r="202" spans="1:5" ht="18" customHeight="1">
+      <c r="A202" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="B202" s="8" t="s">
+      <c r="B202" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="C202" s="3" t="s">
+      <c r="C202" s="2" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="12" t="s">
+      <c r="D202" s="4"/>
+      <c r="E202" s="4"/>
+    </row>
+    <row r="203" spans="1:5" ht="18" customHeight="1">
+      <c r="A203" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="B203" s="8" t="s">
+      <c r="B203" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="C203" s="3" t="s">
+      <c r="C203" s="2" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="12" t="s">
+      <c r="D203" s="4"/>
+      <c r="E203" s="4"/>
+    </row>
+    <row r="204" spans="1:5" ht="18" customHeight="1">
+      <c r="A204" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="B204" s="8" t="s">
+      <c r="B204" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="C204" s="3" t="s">
+      <c r="C204" s="2" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="12" t="s">
+      <c r="D204" s="4"/>
+      <c r="E204" s="4"/>
+    </row>
+    <row r="205" spans="1:5" ht="18" customHeight="1">
+      <c r="A205" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="B205" s="8" t="s">
+      <c r="B205" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="C205" s="3" t="s">
+      <c r="C205" s="2" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="12" t="s">
+      <c r="D205" s="4"/>
+      <c r="E205" s="4"/>
+    </row>
+    <row r="206" spans="1:5" ht="18" customHeight="1">
+      <c r="A206" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="B206" s="8" t="s">
+      <c r="B206" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="C206" s="3" t="s">
+      <c r="C206" s="2" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="12" t="s">
+      <c r="D206" s="4"/>
+      <c r="E206" s="4"/>
+    </row>
+    <row r="207" spans="1:5" ht="18" customHeight="1">
+      <c r="A207" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="B207" s="8" t="s">
+      <c r="B207" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="C207" s="3" t="s">
+      <c r="C207" s="2" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="12" t="s">
+      <c r="D207" s="4"/>
+      <c r="E207" s="4"/>
+    </row>
+    <row r="208" spans="1:5" ht="18" customHeight="1">
+      <c r="A208" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="B208" s="8" t="s">
+      <c r="B208" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="C208" s="3" t="s">
+      <c r="C208" s="2" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="12" t="s">
+      <c r="D208" s="13">
+        <v>52130</v>
+      </c>
+      <c r="E208" s="12" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="18" customHeight="1">
+      <c r="A209" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="B209" s="8" t="s">
+      <c r="B209" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="C209" s="3" t="s">
+      <c r="C209" s="2" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="12" t="s">
+      <c r="D209" s="13">
+        <v>52210</v>
+      </c>
+      <c r="E209" s="12" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="18" customHeight="1">
+      <c r="A210" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="B210" s="8" t="s">
+      <c r="B210" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="C210" s="3" t="s">
+      <c r="C210" s="2" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="12" t="s">
+      <c r="D210" s="13">
+        <v>52140</v>
+      </c>
+      <c r="E210" s="12" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="18" customHeight="1">
+      <c r="A211" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="B211" s="8" t="s">
+      <c r="B211" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="C211" s="3" t="s">
+      <c r="C211" s="2" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="12" t="s">
+      <c r="D211" s="13">
+        <v>52113</v>
+      </c>
+      <c r="E211" s="12" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="18" customHeight="1">
+      <c r="A212" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="B212" s="8" t="s">
+      <c r="B212" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="C212" s="3" t="s">
+      <c r="C212" s="2" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="12" t="s">
+      <c r="D212" s="13">
+        <v>52111</v>
+      </c>
+      <c r="E212" s="12" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="18" customHeight="1">
+      <c r="A213" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="B213" s="8" t="s">
+      <c r="B213" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="C213" s="3" t="s">
+      <c r="C213" s="2" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="12" t="s">
+      <c r="D213" s="13">
+        <v>52710</v>
+      </c>
+      <c r="E213" s="12" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="18" customHeight="1">
+      <c r="A214" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="B214" s="8" t="s">
+      <c r="B214" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="C214" s="3" t="s">
+      <c r="C214" s="2" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="12" t="s">
+      <c r="D214" s="13">
+        <v>52720</v>
+      </c>
+      <c r="E214" s="12" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="18" customHeight="1">
+      <c r="A215" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="B215" s="8" t="s">
+      <c r="B215" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="C215" s="3" t="s">
+      <c r="C215" s="2" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="12" t="s">
+      <c r="D215" s="13">
+        <v>52730</v>
+      </c>
+      <c r="E215" s="12" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="18" customHeight="1">
+      <c r="A216" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="B216" s="8" t="s">
+      <c r="B216" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="C216" s="3" t="s">
+      <c r="C216" s="2" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="12" t="s">
+      <c r="D216" s="13">
+        <v>52740</v>
+      </c>
+      <c r="E216" s="12" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="18" customHeight="1">
+      <c r="A217" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="B217" s="8" t="s">
+      <c r="B217" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="C217" s="3" t="s">
+      <c r="C217" s="2" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="12" t="s">
+      <c r="D217" s="13">
+        <v>52190</v>
+      </c>
+      <c r="E217" s="12" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="18" customHeight="1">
+      <c r="A218" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="B218" s="8" t="s">
+      <c r="B218" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="C218" s="3" t="s">
+      <c r="C218" s="2" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="12" t="s">
+      <c r="D218" s="13">
+        <v>52750</v>
+      </c>
+      <c r="E218" s="12" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="18" customHeight="1">
+      <c r="A219" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="B219" s="8" t="s">
+      <c r="B219" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="C219" s="3" t="s">
+      <c r="C219" s="2" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="12" t="s">
+      <c r="D219" s="13">
+        <v>52770</v>
+      </c>
+      <c r="E219" s="12" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="18" customHeight="1">
+      <c r="A220" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="B220" s="8" t="s">
+      <c r="B220" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="C220" s="3" t="s">
+      <c r="C220" s="2" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="12" t="s">
+      <c r="D220" s="13">
+        <v>52180</v>
+      </c>
+      <c r="E220" s="12" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="18" customHeight="1">
+      <c r="A221" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="B221" s="8" t="s">
+      <c r="B221" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="C221" s="3" t="s">
+      <c r="C221" s="2" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="12" t="s">
+      <c r="D221" s="13">
+        <v>52800</v>
+      </c>
+      <c r="E221" s="12" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="18" customHeight="1">
+      <c r="A222" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="B222" s="8" t="s">
+      <c r="B222" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="C222" s="3" t="s">
+      <c r="C222" s="2" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="12" t="s">
+      <c r="D222" s="13">
+        <v>52790</v>
+      </c>
+      <c r="E222" s="12" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="18" customHeight="1">
+      <c r="A223" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="B223" s="8" t="s">
+      <c r="B223" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="C223" s="3" t="s">
+      <c r="C223" s="2" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="12" t="s">
+      <c r="D223" s="4"/>
+      <c r="E223" s="4"/>
+    </row>
+    <row r="224" spans="1:5" ht="18" customHeight="1">
+      <c r="A224" s="10" t="s">
         <v>443</v>
       </c>
-      <c r="B224" s="8" t="s">
+      <c r="B224" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="C224" s="3" t="s">
+      <c r="C224" s="2" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="12" t="s">
+      <c r="D224" s="4"/>
+      <c r="E224" s="4"/>
+    </row>
+    <row r="225" spans="1:5" ht="18" customHeight="1">
+      <c r="A225" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="B225" s="8" t="s">
+      <c r="B225" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="C225" s="3" t="s">
+      <c r="C225" s="2" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="12" t="s">
+      <c r="D225" s="4"/>
+      <c r="E225" s="4"/>
+    </row>
+    <row r="226" spans="1:5" ht="18" customHeight="1">
+      <c r="A226" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="B226" s="8" t="s">
+      <c r="B226" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="C226" s="3" t="s">
+      <c r="C226" s="2" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="12" t="s">
+      <c r="D226" s="4"/>
+      <c r="E226" s="4"/>
+    </row>
+    <row r="227" spans="1:5" ht="18" customHeight="1">
+      <c r="A227" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="B227" s="8" t="s">
+      <c r="B227" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="C227" s="3" t="s">
+      <c r="C227" s="2" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="12" t="s">
+      <c r="D227" s="4"/>
+      <c r="E227" s="4"/>
+    </row>
+    <row r="228" spans="1:5" ht="18" customHeight="1">
+      <c r="A228" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="B228" s="8" t="s">
+      <c r="B228" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="C228" s="3" t="s">
+      <c r="C228" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="12" t="s">
+      <c r="D228" s="4"/>
+      <c r="E228" s="4"/>
+    </row>
+    <row r="229" spans="1:5" ht="18" customHeight="1">
+      <c r="A229" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="B229" s="8" t="s">
+      <c r="B229" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="C229" s="3" t="s">
+      <c r="C229" s="2" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="12" t="s">
+      <c r="D229" s="4"/>
+      <c r="E229" s="4"/>
+    </row>
+    <row r="230" spans="1:5" ht="18" customHeight="1">
+      <c r="A230" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="B230" s="8" t="s">
+      <c r="B230" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="C230" s="3" t="s">
+      <c r="C230" s="2" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="12" t="s">
+      <c r="D230" s="4"/>
+      <c r="E230" s="4"/>
+    </row>
+    <row r="231" spans="1:5" ht="18" customHeight="1">
+      <c r="A231" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="B231" s="8" t="s">
+      <c r="B231" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="C231" s="3" t="s">
+      <c r="C231" s="2" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="12" t="s">
+      <c r="D231" s="4"/>
+      <c r="E231" s="4"/>
+    </row>
+    <row r="232" spans="1:5" ht="18" customHeight="1">
+      <c r="A232" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="B232" s="8" t="s">
+      <c r="B232" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="C232" s="3" t="s">
+      <c r="C232" s="2" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="12" t="s">
+      <c r="D232" s="4"/>
+      <c r="E232" s="4"/>
+    </row>
+    <row r="233" spans="1:5" ht="18" customHeight="1">
+      <c r="A233" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="B233" s="8" t="s">
+      <c r="B233" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="C233" s="3" t="s">
+      <c r="C233" s="2" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="12" t="s">
+      <c r="D233" s="4"/>
+      <c r="E233" s="4"/>
+    </row>
+    <row r="234" spans="1:5" ht="18" customHeight="1">
+      <c r="A234" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="B234" s="8" t="s">
+      <c r="B234" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="C234" s="3" t="s">
+      <c r="C234" s="2" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="12" t="s">
+      <c r="D234" s="4"/>
+      <c r="E234" s="4"/>
+    </row>
+    <row r="235" spans="1:5" ht="18" customHeight="1">
+      <c r="A235" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="B235" s="8" t="s">
+      <c r="B235" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="C235" s="3" t="s">
+      <c r="C235" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="12" t="s">
+      <c r="D235" s="4"/>
+      <c r="E235" s="4"/>
+    </row>
+    <row r="236" spans="1:5" ht="18" customHeight="1">
+      <c r="A236" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="B236" s="8" t="s">
+      <c r="B236" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="C236" s="3" t="s">
+      <c r="C236" s="2" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="12" t="s">
+      <c r="D236" s="4"/>
+      <c r="E236" s="4"/>
+    </row>
+    <row r="237" spans="1:5" ht="18" customHeight="1">
+      <c r="A237" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="B237" s="8" t="s">
+      <c r="B237" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="C237" s="3" t="s">
+      <c r="C237" s="2" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="12" t="s">
+      <c r="D237" s="4"/>
+      <c r="E237" s="4"/>
+    </row>
+    <row r="238" spans="1:5" ht="18" customHeight="1">
+      <c r="A238" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="B238" s="8" t="s">
+      <c r="B238" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="C238" s="3" t="s">
+      <c r="C238" s="2" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="12" t="s">
+      <c r="D238" s="4"/>
+      <c r="E238" s="4"/>
+    </row>
+    <row r="239" spans="1:5" ht="18" customHeight="1">
+      <c r="A239" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="B239" s="8" t="s">
+      <c r="B239" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="C239" s="3" t="s">
+      <c r="C239" s="2" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="12" t="s">
+      <c r="D239" s="4"/>
+      <c r="E239" s="4"/>
+    </row>
+    <row r="240" spans="1:5" ht="18" customHeight="1">
+      <c r="A240" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="B240" s="8" t="s">
+      <c r="B240" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="C240" s="3" t="s">
+      <c r="C240" s="2" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="12" t="s">
+      <c r="D240" s="4"/>
+      <c r="E240" s="4"/>
+    </row>
+    <row r="241" spans="1:5" ht="18" customHeight="1">
+      <c r="A241" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="B241" s="8" t="s">
+      <c r="B241" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="C241" s="3" t="s">
+      <c r="C241" s="2" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="12" t="s">
+      <c r="D241" s="4"/>
+      <c r="E241" s="4"/>
+    </row>
+    <row r="242" spans="1:5" ht="18" customHeight="1">
+      <c r="A242" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="B242" s="8" t="s">
+      <c r="B242" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="C242" s="3" t="s">
+      <c r="C242" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="12" t="s">
+      <c r="D242" s="4"/>
+      <c r="E242" s="4"/>
+    </row>
+    <row r="243" spans="1:5" ht="18" customHeight="1">
+      <c r="A243" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="B243" s="8" t="s">
+      <c r="B243" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="C243" s="3" t="s">
+      <c r="C243" s="2" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="12" t="s">
+      <c r="D243" s="4"/>
+      <c r="E243" s="4"/>
+    </row>
+    <row r="244" spans="1:5" ht="18" customHeight="1">
+      <c r="A244" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="B244" s="8" t="s">
+      <c r="B244" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="C244" s="3" t="s">
+      <c r="C244" s="2" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="12" t="s">
+      <c r="D244" s="4"/>
+      <c r="E244" s="4"/>
+    </row>
+    <row r="245" spans="1:5" ht="18" customHeight="1">
+      <c r="A245" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="B245" s="8" t="s">
+      <c r="B245" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="C245" s="3" t="s">
+      <c r="C245" s="2" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="12" t="s">
+      <c r="D245" s="4"/>
+      <c r="E245" s="4"/>
+    </row>
+    <row r="246" spans="1:5" ht="18" customHeight="1">
+      <c r="A246" s="10" t="s">
         <v>486</v>
       </c>
-      <c r="B246" s="8" t="s">
+      <c r="B246" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="C246" s="3" t="s">
+      <c r="C246" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="12" t="s">
+      <c r="D246" s="4"/>
+      <c r="E246" s="4"/>
+    </row>
+    <row r="247" spans="1:5" ht="18" customHeight="1">
+      <c r="A247" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="B247" s="8" t="s">
+      <c r="B247" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="C247" s="3" t="s">
+      <c r="C247" s="2" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="12" t="s">
+      <c r="D247" s="4"/>
+      <c r="E247" s="4"/>
+    </row>
+    <row r="248" spans="1:5" ht="18" customHeight="1">
+      <c r="A248" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="B248" s="8" t="s">
+      <c r="B248" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="C248" s="3" t="s">
+      <c r="C248" s="2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="12" t="s">
+      <c r="D248" s="4"/>
+      <c r="E248" s="4"/>
+    </row>
+    <row r="249" spans="1:5" ht="18" customHeight="1">
+      <c r="A249" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="B249" s="8" t="s">
+      <c r="B249" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="C249" s="3" t="s">
+      <c r="C249" s="2" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A250" s="12" t="s">
+      <c r="D249" s="4"/>
+      <c r="E249" s="4"/>
+    </row>
+    <row r="250" spans="1:5" ht="18" customHeight="1">
+      <c r="A250" s="10" t="s">
         <v>493</v>
       </c>
-      <c r="B250" s="8" t="s">
+      <c r="B250" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="C250" s="3" t="s">
+      <c r="C250" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="12" t="s">
+      <c r="D250" s="4"/>
+      <c r="E250" s="4"/>
+    </row>
+    <row r="251" spans="1:5" ht="18" customHeight="1" thickBot="1">
+      <c r="A251" s="14" t="s">
         <v>495</v>
       </c>
-      <c r="B251" s="8" t="s">
+      <c r="B251" s="15" t="s">
         <v>491</v>
       </c>
-      <c r="C251" s="3" t="s">
+      <c r="C251" s="16" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A1000"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="26" width="8.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="D251" s="16"/>
+      <c r="E251" s="16"/>
+    </row>
+    <row r="252" spans="1:5" ht="18" customHeight="1"/>
+    <row r="253" spans="1:5" ht="18" customHeight="1"/>
+    <row r="254" spans="1:5" ht="18" customHeight="1"/>
+    <row r="255" spans="1:5" ht="18" customHeight="1"/>
+    <row r="256" spans="1:5" ht="18" customHeight="1"/>
+    <row r="257" ht="18" customHeight="1"/>
+    <row r="258" ht="18" customHeight="1"/>
+    <row r="259" ht="18" customHeight="1"/>
+    <row r="260" ht="18" customHeight="1"/>
+    <row r="261" ht="18" customHeight="1"/>
+    <row r="262" ht="18" customHeight="1"/>
+    <row r="263" ht="18" customHeight="1"/>
+    <row r="264" ht="18" customHeight="1"/>
+    <row r="265" ht="18" customHeight="1"/>
+    <row r="266" ht="18" customHeight="1"/>
+    <row r="267" ht="18" customHeight="1"/>
+    <row r="268" ht="18" customHeight="1"/>
+    <row r="269" ht="18" customHeight="1"/>
+    <row r="270" ht="18" customHeight="1"/>
+    <row r="271" ht="18" customHeight="1"/>
+    <row r="272" ht="18" customHeight="1"/>
+    <row r="273" ht="18" customHeight="1"/>
+    <row r="274" ht="18" customHeight="1"/>
+    <row r="275" ht="18" customHeight="1"/>
+    <row r="276" ht="18" customHeight="1"/>
+    <row r="277" ht="18" customHeight="1"/>
+    <row r="278" ht="18" customHeight="1"/>
+    <row r="279" ht="18" customHeight="1"/>
+    <row r="280" ht="18" customHeight="1"/>
+    <row r="281" ht="18" customHeight="1"/>
+    <row r="282" ht="18" customHeight="1"/>
+    <row r="283" ht="18" customHeight="1"/>
+    <row r="284" ht="18" customHeight="1"/>
+    <row r="285" ht="18" customHeight="1"/>
+    <row r="286" ht="18" customHeight="1"/>
+    <row r="287" ht="18" customHeight="1"/>
+    <row r="288" ht="18" customHeight="1"/>
+    <row r="289" ht="18" customHeight="1"/>
+    <row r="290" ht="18" customHeight="1"/>
+    <row r="291" ht="18" customHeight="1"/>
+    <row r="292" ht="18" customHeight="1"/>
+    <row r="293" ht="18" customHeight="1"/>
+    <row r="294" ht="18" customHeight="1"/>
+    <row r="295" ht="18" customHeight="1"/>
+    <row r="296" ht="18" customHeight="1"/>
+    <row r="297" ht="18" customHeight="1"/>
+    <row r="298" ht="18" customHeight="1"/>
+    <row r="299" ht="18" customHeight="1"/>
+    <row r="300" ht="18" customHeight="1"/>
+    <row r="301" ht="18" customHeight="1"/>
+    <row r="302" ht="18" customHeight="1"/>
+    <row r="303" ht="18" customHeight="1"/>
+    <row r="304" ht="18" customHeight="1"/>
+    <row r="305" ht="18" customHeight="1"/>
+    <row r="306" ht="18" customHeight="1"/>
+    <row r="307" ht="18" customHeight="1"/>
+    <row r="308" ht="18" customHeight="1"/>
+    <row r="309" ht="18" customHeight="1"/>
+    <row r="310" ht="18" customHeight="1"/>
+    <row r="311" ht="18" customHeight="1"/>
+    <row r="312" ht="18" customHeight="1"/>
+    <row r="313" ht="18" customHeight="1"/>
+    <row r="314" ht="18" customHeight="1"/>
+    <row r="315" ht="18" customHeight="1"/>
+    <row r="316" ht="18" customHeight="1"/>
+    <row r="317" ht="18" customHeight="1"/>
+    <row r="318" ht="18" customHeight="1"/>
+    <row r="319" ht="18" customHeight="1"/>
+    <row r="320" ht="18" customHeight="1"/>
+    <row r="321" ht="18" customHeight="1"/>
+    <row r="322" ht="18" customHeight="1"/>
+    <row r="323" ht="18" customHeight="1"/>
+    <row r="324" ht="18" customHeight="1"/>
+    <row r="325" ht="18" customHeight="1"/>
+    <row r="326" ht="18" customHeight="1"/>
+    <row r="327" ht="18" customHeight="1"/>
+    <row r="328" ht="18" customHeight="1"/>
+    <row r="329" ht="18" customHeight="1"/>
+    <row r="330" ht="18" customHeight="1"/>
+    <row r="331" ht="18" customHeight="1"/>
+    <row r="332" ht="18" customHeight="1"/>
+    <row r="333" ht="18" customHeight="1"/>
+    <row r="334" ht="18" customHeight="1"/>
+    <row r="335" ht="18" customHeight="1"/>
+    <row r="336" ht="18" customHeight="1"/>
+    <row r="337" ht="18" customHeight="1"/>
+    <row r="338" ht="18" customHeight="1"/>
+    <row r="339" ht="18" customHeight="1"/>
+    <row r="340" ht="18" customHeight="1"/>
+    <row r="341" ht="18" customHeight="1"/>
+    <row r="342" ht="18" customHeight="1"/>
+    <row r="343" ht="18" customHeight="1"/>
+    <row r="344" ht="18" customHeight="1"/>
+    <row r="345" ht="18" customHeight="1"/>
+    <row r="346" ht="18" customHeight="1"/>
+    <row r="347" ht="18" customHeight="1"/>
+    <row r="348" ht="18" customHeight="1"/>
+    <row r="349" ht="18" customHeight="1"/>
+    <row r="350" ht="18" customHeight="1"/>
+    <row r="351" ht="18" customHeight="1"/>
+    <row r="352" ht="18" customHeight="1"/>
+    <row r="353" ht="18" customHeight="1"/>
+    <row r="354" ht="18" customHeight="1"/>
+    <row r="355" ht="18" customHeight="1"/>
+    <row r="356" ht="18" customHeight="1"/>
+    <row r="357" ht="18" customHeight="1"/>
+    <row r="358" ht="18" customHeight="1"/>
+    <row r="359" ht="18" customHeight="1"/>
+    <row r="360" ht="18" customHeight="1"/>
+    <row r="361" ht="18" customHeight="1"/>
+    <row r="362" ht="18" customHeight="1"/>
+    <row r="363" ht="18" customHeight="1"/>
+    <row r="364" ht="18" customHeight="1"/>
+    <row r="365" ht="18" customHeight="1"/>
+    <row r="366" ht="18" customHeight="1"/>
+    <row r="367" ht="18" customHeight="1"/>
+    <row r="368" ht="18" customHeight="1"/>
+    <row r="369" ht="18" customHeight="1"/>
+    <row r="370" ht="18" customHeight="1"/>
+    <row r="371" ht="18" customHeight="1"/>
+    <row r="372" ht="18" customHeight="1"/>
+    <row r="373" ht="18" customHeight="1"/>
+    <row r="374" ht="18" customHeight="1"/>
+    <row r="375" ht="18" customHeight="1"/>
+    <row r="376" ht="18" customHeight="1"/>
+    <row r="377" ht="18" customHeight="1"/>
+    <row r="378" ht="18" customHeight="1"/>
+    <row r="379" ht="18" customHeight="1"/>
+    <row r="380" ht="18" customHeight="1"/>
+    <row r="381" ht="18" customHeight="1"/>
+    <row r="382" ht="18" customHeight="1"/>
+    <row r="383" ht="18" customHeight="1"/>
+    <row r="384" ht="18" customHeight="1"/>
+    <row r="385" ht="18" customHeight="1"/>
+    <row r="386" ht="18" customHeight="1"/>
+    <row r="387" ht="18" customHeight="1"/>
+    <row r="388" ht="18" customHeight="1"/>
+    <row r="389" ht="18" customHeight="1"/>
+    <row r="390" ht="18" customHeight="1"/>
+    <row r="391" ht="18" customHeight="1"/>
+    <row r="392" ht="18" customHeight="1"/>
+    <row r="393" ht="18" customHeight="1"/>
+    <row r="394" ht="18" customHeight="1"/>
+    <row r="395" ht="18" customHeight="1"/>
+    <row r="396" ht="18" customHeight="1"/>
+    <row r="397" ht="18" customHeight="1"/>
+    <row r="398" ht="18" customHeight="1"/>
+    <row r="399" ht="18" customHeight="1"/>
+    <row r="400" ht="18" customHeight="1"/>
+    <row r="401" ht="18" customHeight="1"/>
+    <row r="402" ht="18" customHeight="1"/>
+    <row r="403" ht="18" customHeight="1"/>
+    <row r="404" ht="18" customHeight="1"/>
+    <row r="405" ht="18" customHeight="1"/>
+    <row r="406" ht="18" customHeight="1"/>
+    <row r="407" ht="18" customHeight="1"/>
+    <row r="408" ht="18" customHeight="1"/>
+    <row r="409" ht="18" customHeight="1"/>
+    <row r="410" ht="18" customHeight="1"/>
+    <row r="411" ht="18" customHeight="1"/>
+    <row r="412" ht="18" customHeight="1"/>
+    <row r="413" ht="18" customHeight="1"/>
+    <row r="414" ht="18" customHeight="1"/>
+    <row r="415" ht="18" customHeight="1"/>
+    <row r="416" ht="18" customHeight="1"/>
+    <row r="417" ht="18" customHeight="1"/>
+    <row r="418" ht="18" customHeight="1"/>
+    <row r="419" ht="18" customHeight="1"/>
+    <row r="420" ht="18" customHeight="1"/>
+    <row r="421" ht="18" customHeight="1"/>
+    <row r="422" ht="18" customHeight="1"/>
+    <row r="423" ht="18" customHeight="1"/>
+    <row r="424" ht="18" customHeight="1"/>
+    <row r="425" ht="18" customHeight="1"/>
+    <row r="426" ht="18" customHeight="1"/>
+    <row r="427" ht="18" customHeight="1"/>
+    <row r="428" ht="18" customHeight="1"/>
+    <row r="429" ht="18" customHeight="1"/>
+    <row r="430" ht="18" customHeight="1"/>
+    <row r="431" ht="18" customHeight="1"/>
+    <row r="432" ht="18" customHeight="1"/>
+    <row r="433" ht="18" customHeight="1"/>
+    <row r="434" ht="18" customHeight="1"/>
+    <row r="435" ht="18" customHeight="1"/>
+    <row r="436" ht="18" customHeight="1"/>
+    <row r="437" ht="18" customHeight="1"/>
+    <row r="438" ht="18" customHeight="1"/>
+    <row r="439" ht="18" customHeight="1"/>
+    <row r="440" ht="18" customHeight="1"/>
+    <row r="441" ht="18" customHeight="1"/>
+    <row r="442" ht="18" customHeight="1"/>
+    <row r="443" ht="18" customHeight="1"/>
+    <row r="444" ht="18" customHeight="1"/>
+    <row r="445" ht="18" customHeight="1"/>
+    <row r="446" ht="18" customHeight="1"/>
+    <row r="447" ht="18" customHeight="1"/>
+    <row r="448" ht="18" customHeight="1"/>
+    <row r="449" ht="18" customHeight="1"/>
+    <row r="450" ht="18" customHeight="1"/>
+    <row r="451" ht="18" customHeight="1"/>
+    <row r="452" ht="18" customHeight="1"/>
+    <row r="453" ht="18" customHeight="1"/>
+    <row r="454" ht="18" customHeight="1"/>
+    <row r="455" ht="18" customHeight="1"/>
+    <row r="456" ht="18" customHeight="1"/>
+    <row r="457" ht="18" customHeight="1"/>
+    <row r="458" ht="18" customHeight="1"/>
+    <row r="459" ht="18" customHeight="1"/>
+    <row r="460" ht="18" customHeight="1"/>
+    <row r="461" ht="18" customHeight="1"/>
+    <row r="462" ht="18" customHeight="1"/>
+    <row r="463" ht="18" customHeight="1"/>
+    <row r="464" ht="18" customHeight="1"/>
+    <row r="465" ht="18" customHeight="1"/>
+    <row r="466" ht="18" customHeight="1"/>
+    <row r="467" ht="18" customHeight="1"/>
+    <row r="468" ht="18" customHeight="1"/>
+    <row r="469" ht="18" customHeight="1"/>
+    <row r="470" ht="18" customHeight="1"/>
+    <row r="471" ht="18" customHeight="1"/>
+    <row r="472" ht="18" customHeight="1"/>
+    <row r="473" ht="18" customHeight="1"/>
+    <row r="474" ht="18" customHeight="1"/>
+    <row r="475" ht="18" customHeight="1"/>
+    <row r="476" ht="18" customHeight="1"/>
+    <row r="477" ht="18" customHeight="1"/>
+    <row r="478" ht="18" customHeight="1"/>
+    <row r="479" ht="18" customHeight="1"/>
+    <row r="480" ht="18" customHeight="1"/>
+    <row r="481" ht="18" customHeight="1"/>
+    <row r="482" ht="18" customHeight="1"/>
+    <row r="483" ht="18" customHeight="1"/>
+    <row r="484" ht="18" customHeight="1"/>
+    <row r="485" ht="18" customHeight="1"/>
+    <row r="486" ht="18" customHeight="1"/>
+    <row r="487" ht="18" customHeight="1"/>
+    <row r="488" ht="18" customHeight="1"/>
+    <row r="489" ht="18" customHeight="1"/>
+    <row r="490" ht="18" customHeight="1"/>
+    <row r="491" ht="18" customHeight="1"/>
+    <row r="492" ht="18" customHeight="1"/>
+    <row r="493" ht="18" customHeight="1"/>
+    <row r="494" ht="18" customHeight="1"/>
+    <row r="495" ht="18" customHeight="1"/>
+    <row r="496" ht="18" customHeight="1"/>
+    <row r="497" ht="18" customHeight="1"/>
+    <row r="498" ht="18" customHeight="1"/>
+    <row r="499" ht="18" customHeight="1"/>
+    <row r="500" ht="18" customHeight="1"/>
+    <row r="501" ht="18" customHeight="1"/>
+    <row r="502" ht="18" customHeight="1"/>
+    <row r="503" ht="18" customHeight="1"/>
+    <row r="504" ht="18" customHeight="1"/>
+    <row r="505" ht="18" customHeight="1"/>
+    <row r="506" ht="18" customHeight="1"/>
+    <row r="507" ht="18" customHeight="1"/>
+    <row r="508" ht="18" customHeight="1"/>
+    <row r="509" ht="18" customHeight="1"/>
+    <row r="510" ht="18" customHeight="1"/>
+    <row r="511" ht="18" customHeight="1"/>
+    <row r="512" ht="18" customHeight="1"/>
+    <row r="513" ht="18" customHeight="1"/>
+    <row r="514" ht="18" customHeight="1"/>
+    <row r="515" ht="18" customHeight="1"/>
+    <row r="516" ht="18" customHeight="1"/>
+    <row r="517" ht="18" customHeight="1"/>
+    <row r="518" ht="18" customHeight="1"/>
+    <row r="519" ht="18" customHeight="1"/>
+    <row r="520" ht="18" customHeight="1"/>
+    <row r="521" ht="18" customHeight="1"/>
+    <row r="522" ht="18" customHeight="1"/>
+    <row r="523" ht="18" customHeight="1"/>
+    <row r="524" ht="18" customHeight="1"/>
+    <row r="525" ht="18" customHeight="1"/>
+    <row r="526" ht="18" customHeight="1"/>
+    <row r="527" ht="18" customHeight="1"/>
+    <row r="528" ht="18" customHeight="1"/>
+    <row r="529" ht="18" customHeight="1"/>
+    <row r="530" ht="18" customHeight="1"/>
+    <row r="531" ht="18" customHeight="1"/>
+    <row r="532" ht="18" customHeight="1"/>
+    <row r="533" ht="18" customHeight="1"/>
+    <row r="534" ht="18" customHeight="1"/>
+    <row r="535" ht="18" customHeight="1"/>
+    <row r="536" ht="18" customHeight="1"/>
+    <row r="537" ht="18" customHeight="1"/>
+    <row r="538" ht="18" customHeight="1"/>
+    <row r="539" ht="18" customHeight="1"/>
+    <row r="540" ht="18" customHeight="1"/>
+    <row r="541" ht="18" customHeight="1"/>
+    <row r="542" ht="18" customHeight="1"/>
+    <row r="543" ht="18" customHeight="1"/>
+    <row r="544" ht="18" customHeight="1"/>
+    <row r="545" ht="18" customHeight="1"/>
+    <row r="546" ht="18" customHeight="1"/>
+    <row r="547" ht="18" customHeight="1"/>
+    <row r="548" ht="18" customHeight="1"/>
+    <row r="549" ht="18" customHeight="1"/>
+    <row r="550" ht="18" customHeight="1"/>
+    <row r="551" ht="18" customHeight="1"/>
+    <row r="552" ht="18" customHeight="1"/>
+    <row r="553" ht="18" customHeight="1"/>
+    <row r="554" ht="18" customHeight="1"/>
+    <row r="555" ht="18" customHeight="1"/>
+    <row r="556" ht="18" customHeight="1"/>
+    <row r="557" ht="18" customHeight="1"/>
+    <row r="558" ht="18" customHeight="1"/>
+    <row r="559" ht="18" customHeight="1"/>
+    <row r="560" ht="18" customHeight="1"/>
+    <row r="561" ht="18" customHeight="1"/>
+    <row r="562" ht="18" customHeight="1"/>
+    <row r="563" ht="18" customHeight="1"/>
+    <row r="564" ht="18" customHeight="1"/>
+    <row r="565" ht="18" customHeight="1"/>
+    <row r="566" ht="18" customHeight="1"/>
+    <row r="567" ht="18" customHeight="1"/>
+    <row r="568" ht="18" customHeight="1"/>
+    <row r="569" ht="18" customHeight="1"/>
+    <row r="570" ht="18" customHeight="1"/>
+    <row r="571" ht="18" customHeight="1"/>
+    <row r="572" ht="18" customHeight="1"/>
+    <row r="573" ht="18" customHeight="1"/>
+    <row r="574" ht="18" customHeight="1"/>
+    <row r="575" ht="18" customHeight="1"/>
+    <row r="576" ht="18" customHeight="1"/>
+    <row r="577" ht="18" customHeight="1"/>
+    <row r="578" ht="18" customHeight="1"/>
+    <row r="579" ht="18" customHeight="1"/>
+    <row r="580" ht="18" customHeight="1"/>
+    <row r="581" ht="18" customHeight="1"/>
+    <row r="582" ht="18" customHeight="1"/>
+    <row r="583" ht="18" customHeight="1"/>
+    <row r="584" ht="18" customHeight="1"/>
+    <row r="585" ht="18" customHeight="1"/>
+    <row r="586" ht="18" customHeight="1"/>
+    <row r="587" ht="18" customHeight="1"/>
+    <row r="588" ht="18" customHeight="1"/>
+    <row r="589" ht="18" customHeight="1"/>
+    <row r="590" ht="18" customHeight="1"/>
+    <row r="591" ht="18" customHeight="1"/>
+    <row r="592" ht="18" customHeight="1"/>
+    <row r="593" ht="18" customHeight="1"/>
+    <row r="594" ht="18" customHeight="1"/>
+    <row r="595" ht="18" customHeight="1"/>
+    <row r="596" ht="18" customHeight="1"/>
+    <row r="597" ht="18" customHeight="1"/>
+    <row r="598" ht="18" customHeight="1"/>
+    <row r="599" ht="18" customHeight="1"/>
+    <row r="600" ht="18" customHeight="1"/>
+    <row r="601" ht="18" customHeight="1"/>
+    <row r="602" ht="18" customHeight="1"/>
+    <row r="603" ht="18" customHeight="1"/>
+    <row r="604" ht="18" customHeight="1"/>
+    <row r="605" ht="18" customHeight="1"/>
+    <row r="606" ht="18" customHeight="1"/>
+    <row r="607" ht="18" customHeight="1"/>
+    <row r="608" ht="18" customHeight="1"/>
+    <row r="609" ht="18" customHeight="1"/>
+    <row r="610" ht="18" customHeight="1"/>
+    <row r="611" ht="18" customHeight="1"/>
+    <row r="612" ht="18" customHeight="1"/>
+    <row r="613" ht="18" customHeight="1"/>
+    <row r="614" ht="18" customHeight="1"/>
+    <row r="615" ht="18" customHeight="1"/>
+    <row r="616" ht="18" customHeight="1"/>
+    <row r="617" ht="18" customHeight="1"/>
+    <row r="618" ht="18" customHeight="1"/>
+    <row r="619" ht="18" customHeight="1"/>
+    <row r="620" ht="18" customHeight="1"/>
+    <row r="621" ht="18" customHeight="1"/>
+    <row r="622" ht="18" customHeight="1"/>
+    <row r="623" ht="18" customHeight="1"/>
+    <row r="624" ht="18" customHeight="1"/>
+    <row r="625" ht="18" customHeight="1"/>
+    <row r="626" ht="18" customHeight="1"/>
+    <row r="627" ht="18" customHeight="1"/>
+    <row r="628" ht="18" customHeight="1"/>
+    <row r="629" ht="18" customHeight="1"/>
+    <row r="630" ht="18" customHeight="1"/>
+    <row r="631" ht="18" customHeight="1"/>
+    <row r="632" ht="18" customHeight="1"/>
+    <row r="633" ht="18" customHeight="1"/>
+    <row r="634" ht="18" customHeight="1"/>
+    <row r="635" ht="18" customHeight="1"/>
+    <row r="636" ht="18" customHeight="1"/>
+    <row r="637" ht="18" customHeight="1"/>
+    <row r="638" ht="18" customHeight="1"/>
+    <row r="639" ht="18" customHeight="1"/>
+    <row r="640" ht="18" customHeight="1"/>
+    <row r="641" ht="18" customHeight="1"/>
+    <row r="642" ht="18" customHeight="1"/>
+    <row r="643" ht="18" customHeight="1"/>
+    <row r="644" ht="18" customHeight="1"/>
+    <row r="645" ht="18" customHeight="1"/>
+    <row r="646" ht="18" customHeight="1"/>
+    <row r="647" ht="18" customHeight="1"/>
+    <row r="648" ht="18" customHeight="1"/>
+    <row r="649" ht="18" customHeight="1"/>
+    <row r="650" ht="18" customHeight="1"/>
+    <row r="651" ht="18" customHeight="1"/>
+    <row r="652" ht="18" customHeight="1"/>
+    <row r="653" ht="18" customHeight="1"/>
+    <row r="654" ht="18" customHeight="1"/>
+    <row r="655" ht="18" customHeight="1"/>
+    <row r="656" ht="18" customHeight="1"/>
+    <row r="657" ht="18" customHeight="1"/>
+    <row r="658" ht="18" customHeight="1"/>
+    <row r="659" ht="18" customHeight="1"/>
+    <row r="660" ht="18" customHeight="1"/>
+    <row r="661" ht="18" customHeight="1"/>
+    <row r="662" ht="18" customHeight="1"/>
+    <row r="663" ht="18" customHeight="1"/>
+    <row r="664" ht="18" customHeight="1"/>
+    <row r="665" ht="18" customHeight="1"/>
+    <row r="666" ht="18" customHeight="1"/>
+    <row r="667" ht="18" customHeight="1"/>
+    <row r="668" ht="18" customHeight="1"/>
+    <row r="669" ht="18" customHeight="1"/>
+    <row r="670" ht="18" customHeight="1"/>
+    <row r="671" ht="18" customHeight="1"/>
+    <row r="672" ht="18" customHeight="1"/>
+    <row r="673" ht="18" customHeight="1"/>
+    <row r="674" ht="18" customHeight="1"/>
+    <row r="675" ht="18" customHeight="1"/>
+    <row r="676" ht="18" customHeight="1"/>
+    <row r="677" ht="18" customHeight="1"/>
+    <row r="678" ht="18" customHeight="1"/>
+    <row r="679" ht="18" customHeight="1"/>
+    <row r="680" ht="18" customHeight="1"/>
+    <row r="681" ht="18" customHeight="1"/>
+    <row r="682" ht="18" customHeight="1"/>
+    <row r="683" ht="18" customHeight="1"/>
+    <row r="684" ht="18" customHeight="1"/>
+    <row r="685" ht="18" customHeight="1"/>
+    <row r="686" ht="18" customHeight="1"/>
+    <row r="687" ht="18" customHeight="1"/>
+    <row r="688" ht="18" customHeight="1"/>
+    <row r="689" ht="18" customHeight="1"/>
+    <row r="690" ht="18" customHeight="1"/>
+    <row r="691" ht="18" customHeight="1"/>
+    <row r="692" ht="18" customHeight="1"/>
+    <row r="693" ht="18" customHeight="1"/>
+    <row r="694" ht="18" customHeight="1"/>
+    <row r="695" ht="18" customHeight="1"/>
+    <row r="696" ht="18" customHeight="1"/>
+    <row r="697" ht="18" customHeight="1"/>
+    <row r="698" ht="18" customHeight="1"/>
+    <row r="699" ht="18" customHeight="1"/>
+    <row r="700" ht="18" customHeight="1"/>
+    <row r="701" ht="18" customHeight="1"/>
+    <row r="702" ht="18" customHeight="1"/>
+    <row r="703" ht="18" customHeight="1"/>
+    <row r="704" ht="18" customHeight="1"/>
+    <row r="705" ht="18" customHeight="1"/>
+    <row r="706" ht="18" customHeight="1"/>
+    <row r="707" ht="18" customHeight="1"/>
+    <row r="708" ht="18" customHeight="1"/>
+    <row r="709" ht="18" customHeight="1"/>
+    <row r="710" ht="18" customHeight="1"/>
+    <row r="711" ht="18" customHeight="1"/>
+    <row r="712" ht="18" customHeight="1"/>
+    <row r="713" ht="18" customHeight="1"/>
+    <row r="714" ht="18" customHeight="1"/>
+    <row r="715" ht="18" customHeight="1"/>
+    <row r="716" ht="18" customHeight="1"/>
+    <row r="717" ht="18" customHeight="1"/>
+    <row r="718" ht="18" customHeight="1"/>
+    <row r="719" ht="18" customHeight="1"/>
+    <row r="720" ht="18" customHeight="1"/>
+    <row r="721" ht="18" customHeight="1"/>
+    <row r="722" ht="18" customHeight="1"/>
+    <row r="723" ht="18" customHeight="1"/>
+    <row r="724" ht="18" customHeight="1"/>
+    <row r="725" ht="18" customHeight="1"/>
+    <row r="726" ht="18" customHeight="1"/>
+    <row r="727" ht="18" customHeight="1"/>
+    <row r="728" ht="18" customHeight="1"/>
+    <row r="729" ht="18" customHeight="1"/>
+    <row r="730" ht="18" customHeight="1"/>
+    <row r="731" ht="18" customHeight="1"/>
+    <row r="732" ht="18" customHeight="1"/>
+    <row r="733" ht="18" customHeight="1"/>
+    <row r="734" ht="18" customHeight="1"/>
+    <row r="735" ht="18" customHeight="1"/>
+    <row r="736" ht="18" customHeight="1"/>
+    <row r="737" ht="18" customHeight="1"/>
+    <row r="738" ht="18" customHeight="1"/>
+    <row r="739" ht="18" customHeight="1"/>
+    <row r="740" ht="18" customHeight="1"/>
+    <row r="741" ht="18" customHeight="1"/>
+    <row r="742" ht="18" customHeight="1"/>
+    <row r="743" ht="18" customHeight="1"/>
+    <row r="744" ht="18" customHeight="1"/>
+    <row r="745" ht="18" customHeight="1"/>
+    <row r="746" ht="18" customHeight="1"/>
+    <row r="747" ht="18" customHeight="1"/>
+    <row r="748" ht="18" customHeight="1"/>
+    <row r="749" ht="18" customHeight="1"/>
+    <row r="750" ht="18" customHeight="1"/>
+    <row r="751" ht="18" customHeight="1"/>
+    <row r="752" ht="18" customHeight="1"/>
+    <row r="753" ht="18" customHeight="1"/>
+    <row r="754" ht="18" customHeight="1"/>
+    <row r="755" ht="18" customHeight="1"/>
+    <row r="756" ht="18" customHeight="1"/>
+    <row r="757" ht="18" customHeight="1"/>
+    <row r="758" ht="18" customHeight="1"/>
+    <row r="759" ht="18" customHeight="1"/>
+    <row r="760" ht="18" customHeight="1"/>
+    <row r="761" ht="18" customHeight="1"/>
+    <row r="762" ht="18" customHeight="1"/>
+    <row r="763" ht="18" customHeight="1"/>
+    <row r="764" ht="18" customHeight="1"/>
+    <row r="765" ht="18" customHeight="1"/>
+    <row r="766" ht="18" customHeight="1"/>
+    <row r="767" ht="18" customHeight="1"/>
+    <row r="768" ht="18" customHeight="1"/>
+    <row r="769" ht="18" customHeight="1"/>
+    <row r="770" ht="18" customHeight="1"/>
+    <row r="771" ht="18" customHeight="1"/>
+    <row r="772" ht="18" customHeight="1"/>
+    <row r="773" ht="18" customHeight="1"/>
+    <row r="774" ht="18" customHeight="1"/>
+    <row r="775" ht="18" customHeight="1"/>
+    <row r="776" ht="18" customHeight="1"/>
+    <row r="777" ht="18" customHeight="1"/>
+    <row r="778" ht="18" customHeight="1"/>
+    <row r="779" ht="18" customHeight="1"/>
+    <row r="780" ht="18" customHeight="1"/>
+    <row r="781" ht="18" customHeight="1"/>
+    <row r="782" ht="18" customHeight="1"/>
+    <row r="783" ht="18" customHeight="1"/>
+    <row r="784" ht="18" customHeight="1"/>
+    <row r="785" ht="18" customHeight="1"/>
+    <row r="786" ht="18" customHeight="1"/>
+    <row r="787" ht="18" customHeight="1"/>
+    <row r="788" ht="18" customHeight="1"/>
+    <row r="789" ht="18" customHeight="1"/>
+    <row r="790" ht="18" customHeight="1"/>
+    <row r="791" ht="18" customHeight="1"/>
+    <row r="792" ht="18" customHeight="1"/>
+    <row r="793" ht="18" customHeight="1"/>
+    <row r="794" ht="18" customHeight="1"/>
+    <row r="795" ht="18" customHeight="1"/>
+    <row r="796" ht="18" customHeight="1"/>
+    <row r="797" ht="18" customHeight="1"/>
+    <row r="798" ht="18" customHeight="1"/>
+    <row r="799" ht="18" customHeight="1"/>
+    <row r="800" ht="18" customHeight="1"/>
+    <row r="801" ht="18" customHeight="1"/>
+    <row r="802" ht="18" customHeight="1"/>
+    <row r="803" ht="18" customHeight="1"/>
+    <row r="804" ht="18" customHeight="1"/>
+    <row r="805" ht="18" customHeight="1"/>
+    <row r="806" ht="18" customHeight="1"/>
+    <row r="807" ht="18" customHeight="1"/>
+    <row r="808" ht="18" customHeight="1"/>
+    <row r="809" ht="18" customHeight="1"/>
+    <row r="810" ht="18" customHeight="1"/>
+    <row r="811" ht="18" customHeight="1"/>
+    <row r="812" ht="18" customHeight="1"/>
+    <row r="813" ht="18" customHeight="1"/>
+    <row r="814" ht="18" customHeight="1"/>
+    <row r="815" ht="18" customHeight="1"/>
+    <row r="816" ht="18" customHeight="1"/>
+    <row r="817" ht="18" customHeight="1"/>
+    <row r="818" ht="18" customHeight="1"/>
+    <row r="819" ht="18" customHeight="1"/>
+    <row r="820" ht="18" customHeight="1"/>
+    <row r="821" ht="18" customHeight="1"/>
+    <row r="822" ht="18" customHeight="1"/>
+    <row r="823" ht="18" customHeight="1"/>
+    <row r="824" ht="18" customHeight="1"/>
+    <row r="825" ht="18" customHeight="1"/>
+    <row r="826" ht="18" customHeight="1"/>
+    <row r="827" ht="18" customHeight="1"/>
+    <row r="828" ht="18" customHeight="1"/>
+    <row r="829" ht="18" customHeight="1"/>
+    <row r="830" ht="18" customHeight="1"/>
+    <row r="831" ht="18" customHeight="1"/>
+    <row r="832" ht="18" customHeight="1"/>
+    <row r="833" ht="18" customHeight="1"/>
+    <row r="834" ht="18" customHeight="1"/>
+    <row r="835" ht="18" customHeight="1"/>
+    <row r="836" ht="18" customHeight="1"/>
+    <row r="837" ht="18" customHeight="1"/>
+    <row r="838" ht="18" customHeight="1"/>
+    <row r="839" ht="18" customHeight="1"/>
+    <row r="840" ht="18" customHeight="1"/>
+    <row r="841" ht="18" customHeight="1"/>
+    <row r="842" ht="18" customHeight="1"/>
+    <row r="843" ht="18" customHeight="1"/>
+    <row r="844" ht="18" customHeight="1"/>
+    <row r="845" ht="18" customHeight="1"/>
+    <row r="846" ht="18" customHeight="1"/>
+    <row r="847" ht="18" customHeight="1"/>
+    <row r="848" ht="18" customHeight="1"/>
+    <row r="849" ht="18" customHeight="1"/>
+    <row r="850" ht="18" customHeight="1"/>
+    <row r="851" ht="18" customHeight="1"/>
+    <row r="852" ht="18" customHeight="1"/>
+    <row r="853" ht="18" customHeight="1"/>
+    <row r="854" ht="18" customHeight="1"/>
+    <row r="855" ht="18" customHeight="1"/>
+    <row r="856" ht="18" customHeight="1"/>
+    <row r="857" ht="18" customHeight="1"/>
+    <row r="858" ht="18" customHeight="1"/>
+    <row r="859" ht="18" customHeight="1"/>
+    <row r="860" ht="18" customHeight="1"/>
+    <row r="861" ht="18" customHeight="1"/>
+    <row r="862" ht="18" customHeight="1"/>
+    <row r="863" ht="18" customHeight="1"/>
+    <row r="864" ht="18" customHeight="1"/>
+    <row r="865" ht="18" customHeight="1"/>
+    <row r="866" ht="18" customHeight="1"/>
+    <row r="867" ht="18" customHeight="1"/>
+    <row r="868" ht="18" customHeight="1"/>
+    <row r="869" ht="18" customHeight="1"/>
+    <row r="870" ht="18" customHeight="1"/>
+    <row r="871" ht="18" customHeight="1"/>
+    <row r="872" ht="18" customHeight="1"/>
+    <row r="873" ht="18" customHeight="1"/>
+    <row r="874" ht="18" customHeight="1"/>
+    <row r="875" ht="18" customHeight="1"/>
+    <row r="876" ht="18" customHeight="1"/>
+    <row r="877" ht="18" customHeight="1"/>
+    <row r="878" ht="18" customHeight="1"/>
+    <row r="879" ht="18" customHeight="1"/>
+    <row r="880" ht="18" customHeight="1"/>
+    <row r="881" ht="18" customHeight="1"/>
+    <row r="882" ht="18" customHeight="1"/>
+    <row r="883" ht="18" customHeight="1"/>
+    <row r="884" ht="18" customHeight="1"/>
+    <row r="885" ht="18" customHeight="1"/>
+    <row r="886" ht="18" customHeight="1"/>
+    <row r="887" ht="18" customHeight="1"/>
+    <row r="888" ht="18" customHeight="1"/>
+    <row r="889" ht="18" customHeight="1"/>
+    <row r="890" ht="18" customHeight="1"/>
+    <row r="891" ht="18" customHeight="1"/>
+    <row r="892" ht="18" customHeight="1"/>
+    <row r="893" ht="18" customHeight="1"/>
+    <row r="894" ht="18" customHeight="1"/>
+    <row r="895" ht="18" customHeight="1"/>
+    <row r="896" ht="18" customHeight="1"/>
+    <row r="897" ht="18" customHeight="1"/>
+    <row r="898" ht="18" customHeight="1"/>
+    <row r="899" ht="18" customHeight="1"/>
+    <row r="900" ht="18" customHeight="1"/>
+    <row r="901" ht="18" customHeight="1"/>
+    <row r="902" ht="18" customHeight="1"/>
+    <row r="903" ht="18" customHeight="1"/>
+    <row r="904" ht="18" customHeight="1"/>
+    <row r="905" ht="18" customHeight="1"/>
+    <row r="906" ht="18" customHeight="1"/>
+    <row r="907" ht="18" customHeight="1"/>
+    <row r="908" ht="18" customHeight="1"/>
+    <row r="909" ht="18" customHeight="1"/>
+    <row r="910" ht="18" customHeight="1"/>
+    <row r="911" ht="18" customHeight="1"/>
+    <row r="912" ht="18" customHeight="1"/>
+    <row r="913" ht="18" customHeight="1"/>
+    <row r="914" ht="18" customHeight="1"/>
+    <row r="915" ht="18" customHeight="1"/>
+    <row r="916" ht="18" customHeight="1"/>
+    <row r="917" ht="18" customHeight="1"/>
+    <row r="918" ht="18" customHeight="1"/>
+    <row r="919" ht="18" customHeight="1"/>
+    <row r="920" ht="18" customHeight="1"/>
+    <row r="921" ht="18" customHeight="1"/>
+    <row r="922" ht="18" customHeight="1"/>
+    <row r="923" ht="18" customHeight="1"/>
+    <row r="924" ht="18" customHeight="1"/>
+    <row r="925" ht="18" customHeight="1"/>
+    <row r="926" ht="18" customHeight="1"/>
+    <row r="927" ht="18" customHeight="1"/>
+    <row r="928" ht="18" customHeight="1"/>
+    <row r="929" ht="18" customHeight="1"/>
+    <row r="930" ht="18" customHeight="1"/>
+    <row r="931" ht="18" customHeight="1"/>
+    <row r="932" ht="18" customHeight="1"/>
+    <row r="933" ht="18" customHeight="1"/>
+    <row r="934" ht="18" customHeight="1"/>
+    <row r="935" ht="18" customHeight="1"/>
+    <row r="936" ht="18" customHeight="1"/>
+    <row r="937" ht="18" customHeight="1"/>
+    <row r="938" ht="18" customHeight="1"/>
+    <row r="939" ht="18" customHeight="1"/>
+    <row r="940" ht="18" customHeight="1"/>
+    <row r="941" ht="18" customHeight="1"/>
+    <row r="942" ht="18" customHeight="1"/>
+    <row r="943" ht="18" customHeight="1"/>
+    <row r="944" ht="18" customHeight="1"/>
+    <row r="945" ht="18" customHeight="1"/>
+    <row r="946" ht="18" customHeight="1"/>
+    <row r="947" ht="18" customHeight="1"/>
+    <row r="948" ht="18" customHeight="1"/>
+    <row r="949" ht="18" customHeight="1"/>
+    <row r="950" ht="18" customHeight="1"/>
+    <row r="951" ht="18" customHeight="1"/>
+    <row r="952" ht="18" customHeight="1"/>
+    <row r="953" ht="18" customHeight="1"/>
+    <row r="954" ht="18" customHeight="1"/>
+    <row r="955" ht="18" customHeight="1"/>
+    <row r="956" ht="18" customHeight="1"/>
+    <row r="957" ht="18" customHeight="1"/>
+    <row r="958" ht="18" customHeight="1"/>
+    <row r="959" ht="18" customHeight="1"/>
+    <row r="960" ht="18" customHeight="1"/>
+    <row r="961" ht="18" customHeight="1"/>
+    <row r="962" ht="18" customHeight="1"/>
+    <row r="963" ht="18" customHeight="1"/>
+    <row r="964" ht="18" customHeight="1"/>
+    <row r="965" ht="18" customHeight="1"/>
+    <row r="966" ht="18" customHeight="1"/>
+    <row r="967" ht="18" customHeight="1"/>
+    <row r="968" ht="18" customHeight="1"/>
+    <row r="969" ht="18" customHeight="1"/>
+    <row r="970" ht="18" customHeight="1"/>
+    <row r="971" ht="18" customHeight="1"/>
+    <row r="972" ht="18" customHeight="1"/>
+    <row r="973" ht="18" customHeight="1"/>
+    <row r="974" ht="18" customHeight="1"/>
+    <row r="975" ht="18" customHeight="1"/>
+    <row r="976" ht="18" customHeight="1"/>
+    <row r="977" ht="18" customHeight="1"/>
+    <row r="978" ht="18" customHeight="1"/>
+    <row r="979" ht="18" customHeight="1"/>
+    <row r="980" ht="18" customHeight="1"/>
+    <row r="981" ht="18" customHeight="1"/>
+    <row r="982" ht="18" customHeight="1"/>
+    <row r="983" ht="18" customHeight="1"/>
+    <row r="984" ht="18" customHeight="1"/>
+    <row r="985" ht="18" customHeight="1"/>
+    <row r="986" ht="18" customHeight="1"/>
+    <row r="987" ht="18" customHeight="1"/>
+    <row r="988" ht="18" customHeight="1"/>
+    <row r="989" ht="18" customHeight="1"/>
+    <row r="990" ht="18" customHeight="1"/>
+    <row r="991" ht="18" customHeight="1"/>
+    <row r="992" ht="18" customHeight="1"/>
+    <row r="993" ht="18" customHeight="1"/>
+    <row r="994" ht="18" customHeight="1"/>
+    <row r="995" ht="18" customHeight="1"/>
+    <row r="996" ht="18" customHeight="1"/>
+    <row r="997" ht="18" customHeight="1"/>
+    <row r="998" ht="18" customHeight="1"/>
+    <row r="999" ht="18" customHeight="1"/>
+    <row r="1000" ht="18" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
